--- a/baseball_Simul_0.0.4/src/playerdata.xlsx
+++ b/baseball_Simul_0.0.4/src/playerdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boy16\Desktop\민학\baseballSimul\baseball_Simul_0.03\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boy16\git\baseballSimul\baseball_Simul_0.0.4\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5BBE5-1BEF-4581-90E7-E833CC96B51A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4BFD1-3EDE-4513-81CF-021FA6B2336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I4" sqref="I4:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -499,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="H1">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="I1">
         <v>111</v>
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="G2">
+        <v>1.33</v>
+      </c>
+      <c r="H2">
         <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1.33</v>
       </c>
       <c r="I2">
         <v>222</v>
@@ -563,10 +563,10 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="H3">
-        <v>4.33</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
         <v>333</v>
@@ -592,15 +592,18 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="H4">
         <v>22</v>
       </c>
       <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
         <v>0.111</v>
       </c>
     </row>
@@ -621,15 +624,18 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
         <v>33</v>
       </c>
       <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -650,15 +656,18 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -679,15 +688,18 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0.97</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -708,15 +720,18 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="H8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -737,15 +752,18 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -766,15 +784,18 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -795,15 +816,18 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="H11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="J11">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -824,15 +848,18 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -856,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="H13">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="I13">
         <v>111</v>
@@ -888,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="G14">
+        <v>1.33</v>
+      </c>
+      <c r="H14">
         <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1.33</v>
       </c>
       <c r="I14">
         <v>222</v>
@@ -920,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="H15">
-        <v>4.33</v>
+        <v>1.2</v>
       </c>
       <c r="I15">
         <v>333</v>
@@ -949,19 +976,22 @@
         <v>16</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="H16">
         <v>22</v>
       </c>
       <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
         <v>0.111</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -978,19 +1008,22 @@
         <v>17</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H17">
         <v>33</v>
       </c>
       <c r="I17">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1007,19 +1040,22 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H18">
         <v>44</v>
       </c>
       <c r="I18">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1036,19 +1072,22 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0.97</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I19">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1065,19 +1104,22 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I20">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1094,19 +1136,22 @@
         <v>21</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="H21">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="J21">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1123,19 +1168,22 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H22">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="I22">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1152,19 +1200,22 @@
         <v>23</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="H23">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="I23">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1181,15 +1232,18 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
       <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
         <v>0.33300000000000002</v>
       </c>
     </row>

--- a/baseball_Simul_0.0.4/src/playerdata.xlsx
+++ b/baseball_Simul_0.0.4/src/playerdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boy16\git\baseballSimul\baseball_Simul_0.0.4\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4BFD1-3EDE-4513-81CF-021FA6B2336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC314C4F-16DB-4904-B225-19D0A6A7ACEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,78 +75,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번</t>
-  </si>
-  <si>
-    <t>4번</t>
-  </si>
-  <si>
-    <t>5번</t>
-  </si>
-  <si>
-    <t>6번</t>
-  </si>
-  <si>
-    <t>7번</t>
-  </si>
-  <si>
-    <t>8번</t>
-  </si>
-  <si>
-    <t>9번</t>
-  </si>
-  <si>
-    <t>2번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번</t>
-  </si>
-  <si>
-    <t>11번</t>
-  </si>
-  <si>
-    <t>12번</t>
-  </si>
-  <si>
-    <t>13번</t>
-  </si>
-  <si>
-    <t>14번</t>
-  </si>
-  <si>
-    <t>15번</t>
-  </si>
-  <si>
-    <t>16번</t>
-  </si>
-  <si>
-    <t>17번</t>
-  </si>
-  <si>
-    <t>18번</t>
-  </si>
-  <si>
-    <t>19번</t>
-  </si>
-  <si>
-    <t>20번</t>
-  </si>
-  <si>
-    <t>21번</t>
-  </si>
-  <si>
-    <t>22번</t>
-  </si>
-  <si>
-    <t>23번</t>
-  </si>
-  <si>
-    <t>24번</t>
+    <t>정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손아섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전준우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이대호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이병규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안치홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한동희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마차도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레일리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구승민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김원중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서진용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고종욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오태곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김강민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -473,11 +495,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -490,25 +518,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G1">
-        <v>0.33</v>
+        <v>2.5</v>
       </c>
       <c r="H1">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="I1">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="J1">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -522,25 +550,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1.33</v>
+        <v>3.58</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I2">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -554,25 +582,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4.33</v>
+        <v>4.08</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="I3">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -580,31 +608,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>0.111</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -612,31 +640,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="G5">
-        <v>0.9</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>0.33300000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -644,31 +672,31 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G6">
-        <v>1.1100000000000001</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6">
-        <v>0.33300000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -676,31 +704,31 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="G7">
-        <v>0.97</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J7">
-        <v>0.33300000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -708,28 +736,28 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>0.98699999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="H8">
         <v>33</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J8">
         <v>0.33300000000000002</v>
@@ -740,31 +768,31 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="G9">
-        <v>0.56599999999999995</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J9">
-        <v>0.33300000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -772,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G10">
-        <v>0.44400000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J10">
-        <v>0.33300000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -804,31 +832,31 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="G11">
         <v>0.67800000000000005</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J11">
-        <v>0.33300000000000002</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -836,31 +864,31 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>133</v>
       </c>
       <c r="G12">
-        <v>0.88800000000000001</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J12">
-        <v>0.33300000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -874,25 +902,25 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>5.68</v>
       </c>
       <c r="H13">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I13">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J13">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -906,25 +934,25 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>1.33</v>
+        <v>2.42</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="I14">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="J14">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -938,25 +966,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="H15">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="I15">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="J15">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -964,31 +992,31 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G16">
-        <v>0.85</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>0.111</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -996,31 +1024,31 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G17">
-        <v>0.9</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J17">
-        <v>0.33300000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -1028,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1037,22 +1065,22 @@
         <v>29</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G18">
-        <v>1.1100000000000001</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J18">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1060,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1069,22 +1097,22 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G19">
-        <v>0.97</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J19">
-        <v>0.33300000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -1092,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1104,19 +1132,19 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.98699999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J20">
-        <v>0.33300000000000002</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1124,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1133,22 +1161,22 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="G21">
-        <v>0.56599999999999995</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J21">
-        <v>0.33300000000000002</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -1156,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1165,22 +1193,22 @@
         <v>33</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G22">
-        <v>0.44400000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J22">
-        <v>0.33300000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -1188,31 +1216,31 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G23">
-        <v>0.67800000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>0.33300000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -1220,31 +1248,31 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F24">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>0.88800000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J24">
-        <v>0.33300000000000002</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/baseball_Simul_0.0.4/src/playerdata.xlsx
+++ b/baseball_Simul_0.0.4/src/playerdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boy16\git\baseballSimul\baseball_Simul_0.0.4\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC314C4F-16DB-4904-B225-19D0A6A7ACEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44C7E73-BBAE-40AE-8B94-9B6946BA6BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>김준태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -838,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>44</v>
@@ -1062,25 +1062,25 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>0.93600000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="J18">
-        <v>0.27300000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>27</v>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -1222,25 +1222,25 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>24</v>
       </c>
       <c r="F23">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>0.73899999999999999</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>0.29399999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -1254,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>46</v>
